--- a/excel2sql/DBschema.xlsx
+++ b/excel2sql/DBschema.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,34 @@
   </si>
   <si>
     <t>REC_LAST_UPDATE_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANNEL_NAME,CHANNEL_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDX_CHANNEL_NAME_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -277,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -291,6 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -602,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -665,26 +694,28 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
@@ -693,19 +724,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -716,61 +745,59 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
@@ -779,17 +806,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>34</v>
@@ -797,216 +824,250 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="28" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>49</v>
-      </c>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+    <row r="12" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="2"/>
+    <row r="13" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>2</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="28" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" ht="28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
       <c r="F17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:13" ht="28" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:13" ht="28" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -1074,24 +1135,42 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J41" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
